--- a/Data/Drug Dilution Tables/240414_DDT.xlsx
+++ b/Data/Drug Dilution Tables/240414_DDT.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Lab Notebook/Data/Drug Dilution Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FE34762-493A-7649-B24B-F069AECD188C}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53F58B17-8D23-4244-9E16-D36D4643F8DD}"/>
   <bookViews>
-    <workbookView xWindow="49400" yWindow="-1440" windowWidth="27240" windowHeight="15820" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
+    <workbookView xWindow="4220" yWindow="800" windowWidth="29400" windowHeight="16960" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Dilution ID</t>
   </si>
@@ -84,13 +86,73 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Cell Line</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>Required Cell total</t>
+  </si>
+  <si>
+    <t>Required Volume total</t>
+  </si>
+  <si>
+    <t>CS cells/mL</t>
+  </si>
+  <si>
+    <t>Cell Count</t>
+  </si>
+  <si>
+    <t>Stock Volume</t>
+  </si>
+  <si>
+    <t>Media Volume</t>
+  </si>
+  <si>
+    <t>Plate 1</t>
+  </si>
+  <si>
+    <t>Cells/well</t>
+  </si>
+  <si>
+    <t>Volume/well</t>
+  </si>
+  <si>
+    <t>Plate 2</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>N2-BC</t>
+  </si>
+  <si>
+    <t>Source Volume</t>
+  </si>
+  <si>
+    <t>Stock Concentration</t>
+  </si>
+  <si>
+    <t>RTX 7</t>
+  </si>
+  <si>
+    <t>RTX 8</t>
+  </si>
+  <si>
+    <t>RTX 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +185,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,11 +214,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,6 +237,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,10 +560,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30211B3-F241-4E45-997A-6E71BA0CA3E4}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4">
+        <v>600000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>800</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4">
+        <v>670000</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF2DF08-FEFA-C14A-8884-5365604A78BB}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -530,13 +729,15 @@
         <v>15</v>
       </c>
       <c r="D2" s="2">
+        <f>Sheet1!G2</f>
         <v>200</v>
       </c>
       <c r="E2" s="2">
+        <f>Sheet1!H2</f>
         <v>800</v>
       </c>
       <c r="F2" s="1">
-        <f>(D2 * 10300) / (D2 + E2)</f>
+        <f>(D2 * Sheet1!I2) / (D2 + E2)</f>
         <v>2060</v>
       </c>
     </row>
@@ -578,15 +779,15 @@
         <v>RTX 2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D7" si="2">($D$2+$E$2)/2</f>
+        <f t="shared" ref="D4:E10" si="2">($D$2+$E$2)/2</f>
         <v>500</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="3">($D$2+$E$2)/2</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="4">F3/2</f>
+        <f t="shared" ref="F4:F10" si="3">F3/2</f>
         <v>515</v>
       </c>
     </row>
@@ -607,11 +808,11 @@
         <v>500</v>
       </c>
       <c r="E5">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="4"/>
         <v>257.5</v>
       </c>
     </row>
@@ -632,11 +833,11 @@
         <v>500</v>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
         <v>128.75</v>
       </c>
     </row>
@@ -657,32 +858,107 @@
         <v>500</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="4"/>
         <v>64.375</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B10" si="4">F8/4</f>
+        <v>8.046875</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ref="C8:C10" si="5">A7</f>
+        <v>RTX 6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>32.1875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0234375</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="5"/>
+        <v>RTX 7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>16.09375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="4"/>
+        <v>2.01171875</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="5"/>
+        <v>RTX 8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>8.046875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <f>D2+E2</f>
         <v>1000</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -690,4 +966,415 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A42584-109A-3C42-B454-2B4BE87D75D3}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="str">
+        <f>Sheet1!A2</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>Sheet1!B2</f>
+        <v>RAMOS</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Sheet1!F2</f>
+        <v>600000</v>
+      </c>
+      <c r="D2" s="5">
+        <f>Sheet1!D2*Sheet1!C2</f>
+        <v>600000</v>
+      </c>
+      <c r="E2">
+        <f>Sheet1!C2*Sheet1!E2</f>
+        <v>1500</v>
+      </c>
+      <c r="F2" s="5">
+        <f>C2/(E2/1000)</f>
+        <v>400000</v>
+      </c>
+      <c r="G2" s="5">
+        <f>D2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <f>(E2/1000)-G2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="str">
+        <f>Sheet1!A3</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>Sheet1!B3</f>
+        <v>N2-BC</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Sheet1!F3</f>
+        <v>670000</v>
+      </c>
+      <c r="D3" s="5">
+        <f>Sheet1!D3*Sheet1!C3</f>
+        <v>600000</v>
+      </c>
+      <c r="E3">
+        <f>Sheet1!C3*Sheet1!E3</f>
+        <v>1500</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C3/(E3/1000)</f>
+        <v>446666.66666666669</v>
+      </c>
+      <c r="G3" s="5">
+        <f>D3/C3</f>
+        <v>0.89552238805970152</v>
+      </c>
+      <c r="H3" s="5">
+        <f>(E3/1000)-G3</f>
+        <v>0.60447761194029848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>